--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mem1945\Documents\GitHub\Demo_S012_Vonline\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5461B1E9-0EE1-4767-8258-C2DC237790A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2800,11 +2799,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="214" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -3003,7 +3002,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3057,6 +3056,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,14 +3183,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3238,7 +3243,7 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3383,8 +3388,8 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3426,7 +3431,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3435,51 +3440,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="15" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
+    <cellStyle name="20 % - Accent5" xfId="1" builtinId="46"/>
+    <cellStyle name="40 % - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="calculated" xfId="4"/>
     <cellStyle name="Calculation 2" xfId="5"/>
@@ -3491,10 +3497,9 @@
     <cellStyle name="Comma 2 4" xfId="11"/>
     <cellStyle name="Comma 2 5" xfId="12"/>
     <cellStyle name="Comma 3" xfId="13"/>
-    <cellStyle name="Good" xfId="14" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8"/>
     <cellStyle name="Hyperlink 3" xfId="16"/>
-    <cellStyle name="Neutral" xfId="17" builtinId="28"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8"/>
+    <cellStyle name="Neutre" xfId="17" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="18"/>
     <cellStyle name="Normal 11" xfId="19"/>
@@ -3536,6 +3541,7 @@
     <cellStyle name="Percent 6 2" xfId="55"/>
     <cellStyle name="Percent 7" xfId="56"/>
     <cellStyle name="Percent 8" xfId="57"/>
+    <cellStyle name="Satisfaisant" xfId="14" builtinId="26"/>
     <cellStyle name="Standard_Sce_D_Extraction" xfId="58"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4554,7 +4560,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4629,23 +4635,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4681,23 +4670,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4877,11 +4849,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
@@ -5743,8 +5715,9 @@
       <c r="H23" s="31">
         <v>0.35</v>
       </c>
-      <c r="I23" s="25">
-        <v>1500</v>
+      <c r="I23" s="129">
+        <f>1500*1.25</f>
+        <v>1875</v>
       </c>
       <c r="J23" s="25">
         <v>35</v>
@@ -5856,7 +5829,7 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
@@ -6415,7 +6388,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -7085,7 +7058,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -8808,11 +8781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -9852,7 +9825,7 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="106" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="9.140625" style="106"/>
